--- a/train_log/convert_chart.xlsx
+++ b/train_log/convert_chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEC71E3-8889-4385-B642-A1D81BACB4C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504FE94D-D82D-4585-812D-B30C7D9A8390}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -447,7 +447,7 @@
         <v>8.1</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f>C4/B4</f>
         <v>16.2</v>
       </c>
     </row>

--- a/train_log/convert_chart.xlsx
+++ b/train_log/convert_chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504FE94D-D82D-4585-812D-B30C7D9A8390}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD9F9D6-116B-4DF6-A4DE-B32B59809211}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>In Reality</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Time(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Decision Freq(Hz)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,7 +47,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Total steps</t>
+    <t>Epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Observations/Decision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps/epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Decision Steps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Span(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human Speed(m/s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,92 +400,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
         <v>10</v>
-      </c>
-      <c r="C2">
-        <v>8.1</v>
       </c>
       <c r="D2">
         <f>C2/B2</f>
-        <v>0.80999999999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <f>C2*C4</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D3">
+        <f>C3/B3</f>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f>B2/C2</f>
-        <v>1.2345679012345681</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">C3/B3</f>
-        <v>1.2345679012345681</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <f>C2</f>
-        <v>8.1</v>
+        <v>0.88</v>
       </c>
       <c r="D4">
         <f>C4/B4</f>
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f>40*60*60*B2</f>
-        <v>1440000</v>
-      </c>
-      <c r="C7">
-        <f>500*500</f>
-        <v>250000</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.1736111111111111</v>
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f>40*60*60*B4</f>
+        <v>72000</v>
+      </c>
+      <c r="C5">
+        <f>H3*H2</f>
+        <v>116100</v>
+      </c>
+      <c r="D5">
+        <f>C5/B5</f>
+        <v>1.6125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>B3/C3</f>
+        <v>1.1363636363636362</v>
+      </c>
+      <c r="D8">
+        <f>C8/B8</f>
+        <v>1.1363636363636362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1.4</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <f>C9/B9</f>
+        <v>7.1428571428571432</v>
       </c>
     </row>
   </sheetData>

--- a/train_log/convert_chart.xlsx
+++ b/train_log/convert_chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD9F9D6-116B-4DF6-A4DE-B32B59809211}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941391EF-2132-4A4C-A494-20AC2E8965CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -459,11 +459,11 @@
       </c>
       <c r="C3">
         <f>C2*C4</f>
-        <v>8.8000000000000007</v>
+        <v>25.9</v>
       </c>
       <c r="D3">
         <f>C3/B3</f>
-        <v>0.88000000000000012</v>
+        <v>2.59</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -480,11 +480,11 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>0.88</v>
+        <v>2.59</v>
       </c>
       <c r="D4">
         <f>C4/B4</f>
-        <v>1.76</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -513,11 +513,11 @@
       </c>
       <c r="C8">
         <f>B3/C3</f>
-        <v>1.1363636363636362</v>
+        <v>0.38610038610038611</v>
       </c>
       <c r="D8">
         <f>C8/B8</f>
-        <v>1.1363636363636362</v>
+        <v>0.38610038610038611</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
